--- a/EvolvedTax_Institute/wwwroot/Templates/New_Entity_Template.xlsx
+++ b/EvolvedTax_Institute/wwwroot/Templates/New_Entity_Template.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OwaisBaig\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A9BA5A-CC84-4B80-BDAF-AEB42E3AB34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02BE7B9-8B00-4CC0-9DA1-0799032CDF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F2DF85C-AEB0-49F8-B977-95223E164819}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F2DF85C-AEB0-49F8-B977-95223E164819}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>EntityName</t>
   </si>
@@ -69,15 +67,921 @@
   </si>
   <si>
     <t>Zip/Postal Code</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Taiwan, Province of China</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Congo, Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Cote D'Ivoire</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Heard Island and Mcdonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Macedonia, the Former Yugoslav Republic of</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Palestinian Territory, Occupied</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Holy See (Vatican City State)</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Virgin Islands, British</t>
+  </si>
+  <si>
+    <t>Virgin Islands, U.s.</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="##\-#######"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,14 +1019,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,28 +1043,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +1084,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -305,7 +1190,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,7 +1332,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,18 +1343,17 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1"/>
-    <col min="2" max="2" width="27.5703125" style="6"/>
-    <col min="3" max="3" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="27.5703125" style="1"/>
+    <col min="1" max="1" width="27.5546875" style="1"/>
+    <col min="3" max="3" width="21.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="27.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,25 +1387,1480 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Wrong Data Entered" error="Please enter the EIN in correct format" promptTitle="Length not Matching" prompt="Please enter EIN in correct format" sqref="B1:B1048576" xr:uid="{0466B87A-84B1-438B-843A-7C08E65E26D7}">
-      <formula1>10</formula1>
+      <formula1>11</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Date" error="Please enter the correct date should not be greater than today" sqref="C1:C1048576" xr:uid="{BD8A45F0-0580-4E42-A545-CF98FB93C04C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9F5ABC8-8E7B-4C48-9F5E-7A12CA54A03F}">
           <x14:formula1>
-            <xm:f>'D:\Downloads\[InstituteClientsTemplate.xlsx]Sheet2'!#REF!</xm:f>
+            <xm:f>Sheet2!$B$1:$B$52</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576 J1:J1048576</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Date" error="Please enter the correct date should not be greater than today" xr:uid="{BD8A45F0-0580-4E42-A545-CF98FB93C04C}">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$2</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>Sheet2!$C$2</xm:f>
+          </x14:formula2>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB966EF7-D167-4BED-A770-C465852C6318}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$253</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E5EE74-0711-4061-9F86-7FEC9D9BE640}">
+  <dimension ref="A2:D253"/>
+  <sheetViews>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45377</v>
+      </c>
+      <c r="D2" s="4">
+        <v>29221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="xDjRIco8G3BHHp/Wax4UlZBDTXDRu72KlqLkzqTyH0nU6owSvyikkpUAVZ7SPz6LB8utKZoNIQUfFTlbz9pR0w==" saltValue="W/eNzktOe084k4c/ENtnPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>